--- a/create cards for OZON WB XLS/Data_to_create3_output_data_for_WB.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create3_output_data_for_WB.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/53_Cillian_Murphy_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/54_john_wick_smoke_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
         </is>
       </c>
     </row>
